--- a/genshin/536434556208809515_2021-06-15_14-00-03.xlsx
+++ b/genshin/536434556208809515_2021-06-15_14-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-24 12:13:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44371.50927083333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-22 23:10:21</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44369.96552083334</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-22 14:19:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44369.59700231482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -790,10 +800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-22 10:21:31</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44369.43160879629</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,10 +869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-22 02:12:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44369.09210648148</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -928,10 +934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-21 20:27:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44368.85269675926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -995,10 +999,8 @@
           <t>4767157679</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-21 15:58:14</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44368.66543981482</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1070,10 +1072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-21 08:40:52</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44368.36171296296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1150,10 +1150,8 @@
           <t>4762640536</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-20 19:43:18</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44367.82173611111</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1227,10 +1225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-20 18:36:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44367.77530092592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1290,10 +1286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-19 09:12:54</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44366.38395833333</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1357,10 +1351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-18 21:19:04</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44365.88824074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1424,10 +1416,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-17 23:19:13</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44364.97167824074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1487,10 +1477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-17 18:33:39</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44364.77336805555</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1554,10 +1542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-17 14:44:45</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44364.61440972222</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1621,10 +1607,8 @@
           <t>4735223260</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-16 23:00:26</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44363.95863425926</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1700,10 +1684,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-16 17:35:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44363.73310185185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1767,10 +1749,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-16 16:45:42</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44363.69840277778</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1846,10 +1826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:02:00</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44363.54305555556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1913,10 +1891,8 @@
           <t>4737192736</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:58:09</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44363.54038194445</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1992,10 +1968,8 @@
           <t>4737127781</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:47:44</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44363.53314814815</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2071,10 +2045,8 @@
           <t>4731895800</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:16:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44363.51162037037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2150,10 +2122,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:53:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44363.49549768519</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2217,10 +2187,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:44:32</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44363.48925925926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2284,10 +2252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:21:30</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44363.38993055555</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2363,10 +2329,8 @@
           <t>4736113571</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:04:47</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44363.37832175926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2442,10 +2406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:36:59</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44363.35901620371</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2522,10 +2484,8 @@
           <t>4736027109</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:33:53</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44363.35686342593</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2601,10 +2561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-16 05:07:42</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44363.21368055556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2670,10 +2628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-16 05:00:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44363.20862268518</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2745,10 +2701,8 @@
           <t>4735621982</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-16 03:13:06</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44363.13409722222</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2824,10 +2778,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-16 03:10:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44363.13251157408</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2903,10 +2855,8 @@
           <t>4734573156</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:56:06</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44363.12229166667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2970,10 +2920,8 @@
           <t>4735558617</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:29:16</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44363.10365740741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3037,10 +2985,8 @@
           <t>4735534043</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:19:17</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44363.09672453703</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3104,10 +3050,8 @@
           <t>4735474325</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:51:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44363.07756944445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3183,10 +3127,8 @@
           <t>4735477761</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:50:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44363.07668981481</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3262,10 +3204,8 @@
           <t>4735422992</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:29:26</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44363.06210648148</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3337,10 +3277,8 @@
           <t>4735223260</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:28:22</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44363.06136574074</v>
       </c>
       <c r="I40" t="n">
         <v>9</v>
@@ -3412,10 +3350,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:17:47</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44363.05401620371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3492,10 +3428,8 @@
           <t>4735352439</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:09:00</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44363.04791666667</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3568,10 +3502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:58:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44363.04050925926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3647,10 +3579,8 @@
           <t>4735268841</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:48:25</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44363.03362268519</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3726,10 +3656,8 @@
           <t>4735248878</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:44:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44363.03078703704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3805,10 +3733,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:41:50</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44363.02905092593</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3884,10 +3810,8 @@
           <t>4735223260</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:38:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44363.02694444444</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3963,10 +3887,8 @@
           <t>4735223260</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:37:42</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44363.02618055556</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4033,10 +3955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:36:07</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44363.02508101852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4104,10 +4024,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:28:53</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44363.02005787037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4171,10 +4089,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:27:20</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44363.01898148148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4238,10 +4154,8 @@
           <t>4735019896</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:17:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44363.01231481481</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4317,10 +4231,8 @@
           <t>4735019896</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:14:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44363.01024305556</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4384,10 +4296,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:14:41</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44363.01019675926</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4451,10 +4361,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:12:34</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44363.00872685185</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4518,10 +4426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:00:54</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44363.000625</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4581,10 +4487,8 @@
           <t>4735019896</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:57:13</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44362.99806712963</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4660,10 +4564,8 @@
           <t>4735001958</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:53:10</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44362.99525462963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4731,10 +4633,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:44:49</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44362.98945601852</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4798,10 +4698,8 @@
           <t>4734944074</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:43:56</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44362.98884259259</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4869,10 +4767,8 @@
           <t>4734943588</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:43:39</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44362.98864583333</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4948,10 +4844,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:42:12</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44362.98763888889</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5027,10 +4921,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:37:14</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44362.98418981482</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5094,10 +4986,8 @@
           <t>4734163834</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:35:36</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44362.98305555555</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5173,10 +5063,8 @@
           <t>4734879810</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:33:47</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44362.98179398148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5240,10 +5128,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:59:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44362.95814814815</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5319,10 +5205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:57:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44362.95688657407</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5386,10 +5270,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:48:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44362.95050925926</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5465,10 +5347,8 @@
           <t>4734573156</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:45:11</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44362.94804398148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5544,10 +5424,8 @@
           <t>4734561952</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:42:39</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44362.94628472222</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5611,10 +5489,8 @@
           <t>4734163834</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:40:00</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44362.94444444445</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5686,10 +5562,8 @@
           <t>4731895800</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:34:04</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44362.94032407407</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5761,10 +5635,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:28:31</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44362.93646990741</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5832,10 +5704,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:23:33</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44362.93302083333</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5903,10 +5773,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:23:00</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44362.93263888889</v>
       </c>
       <c r="I75" t="n">
         <v>5</v>
@@ -5982,10 +5850,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:13:43</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44362.92619212963</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6061,10 +5927,8 @@
           <t>4734354100</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:11:08</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44362.92439814815</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6136,10 +6000,8 @@
           <t>4734163834</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:04:36</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44362.91986111111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6203,10 +6065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:01:17</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44362.91755787037</v>
       </c>
       <c r="I79" t="n">
         <v>9</v>
@@ -6266,10 +6126,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:42:04</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44362.90421296296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6347,10 +6205,8 @@
           <t>4734163834</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:40:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44362.90305555556</v>
       </c>
       <c r="I81" t="n">
         <v>15</v>
@@ -6414,10 +6270,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:36:17</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44362.90019675926</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6481,10 +6335,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:35:49</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44362.89987268519</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6548,10 +6400,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:33:39</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44362.89836805555</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6615,10 +6465,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:31:45</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44362.89704861111</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6682,10 +6530,8 @@
           <t>4734103033</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:29:38</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44362.8955787037</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6753,10 +6599,8 @@
           <t>4734064842</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:25:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44362.89241898148</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6820,10 +6664,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:22:26</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44362.8905787037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6899,10 +6741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:21:54</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44362.89020833333</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6966,10 +6806,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:13:52</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44362.88462962963</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7045,10 +6883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:13:22</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44362.88428240741</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7116,10 +6952,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:07:20</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44362.88009259259</v>
       </c>
       <c r="I92" t="n">
         <v>4</v>
@@ -7197,10 +7031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:01:11</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44362.87582175926</v>
       </c>
       <c r="I93" t="n">
         <v>23</v>
@@ -7264,10 +7096,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:56:08</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44362.87231481481</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7331,10 +7161,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:53:30</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44362.87048611111</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7410,10 +7238,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:43:15</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44362.86336805556</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7477,10 +7303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:40:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44362.86177083333</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7548,10 +7372,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:29:00</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44362.85347222222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7615,10 +7437,8 @@
           <t>4733739896</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:28:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44362.85314814815</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7678,10 +7498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:23:27</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44362.84961805555</v>
       </c>
       <c r="I100" t="n">
         <v>32</v>
@@ -7749,10 +7567,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:20:41</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44362.84769675926</v>
       </c>
       <c r="I101" t="n">
         <v>10</v>
@@ -7830,10 +7646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:14:25</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44362.84334490741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7909,10 +7723,8 @@
           <t>4733662208</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:13:51</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44362.84295138889</v>
       </c>
       <c r="I103" t="n">
         <v>5</v>
@@ -7984,10 +7796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:03:28</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44362.83574074074</v>
       </c>
       <c r="I104" t="n">
         <v>5</v>
@@ -8063,10 +7873,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:00:26</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44362.83363425926</v>
       </c>
       <c r="I105" t="n">
         <v>6</v>
@@ -8134,10 +7942,8 @@
           <t>4733549796</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:55:30</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44362.83020833333</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8213,10 +8019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:51:44</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44362.82759259259</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8284,10 +8088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:49:39</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44362.82614583334</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8359,10 +8161,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:42:12</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44362.82097222222</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8426,10 +8226,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:41:53</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44362.82075231482</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8501,10 +8299,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:40:55</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44362.82008101852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8577,10 +8373,8 @@
           <t>4733445869</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:36:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44362.81722222222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8652,10 +8446,8 @@
           <t>4733376085</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:30:30</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44362.81284722222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8719,10 +8511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:27:51</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44362.81100694444</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8786,10 +8576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:27:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44362.81083333334</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8865,10 +8653,8 @@
           <t>4733376085</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:26:36</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44362.81013888889</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8936,10 +8722,8 @@
           <t>4733376085</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:24:36</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44362.80875</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9015,10 +8799,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:24:36</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44362.80875</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9082,10 +8864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:24:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44362.80864583333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9161,10 +8941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:19:46</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44362.80539351852</v>
       </c>
       <c r="I120" t="n">
         <v>9</v>
@@ -9232,10 +9010,8 @@
           <t>4733302548</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:12:54</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44362.800625</v>
       </c>
       <c r="I121" t="n">
         <v>23</v>
@@ -9299,10 +9075,8 @@
           <t>4733298315</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:12:11</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44362.80012731482</v>
       </c>
       <c r="I122" t="n">
         <v>10</v>
@@ -9366,10 +9140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:11:40</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44362.79976851852</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9437,10 +9209,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:59:15</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44362.79114583333</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9504,10 +9274,8 @@
           <t>4733207375</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:57:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44362.78983796296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9583,10 +9351,8 @@
           <t>4733188551</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:53:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44362.78731481481</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9657,10 +9423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44362.78626157407</v>
       </c>
       <c r="I127" t="n">
         <v>116</v>
@@ -9736,10 +9500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:47:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44362.78321759259</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9808,10 +9570,8 @@
           <t>4732184861</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:33:44</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44362.77342592592</v>
       </c>
       <c r="I129" t="n">
         <v>10</v>
@@ -9883,10 +9643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:31:13</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44362.77167824074</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9958,10 +9716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:28:16</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44362.76962962963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10033,10 +9789,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:20:04</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44362.76393518518</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10100,10 +9854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:11:29</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44362.75797453704</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10167,10 +9919,8 @@
           <t>4732905020</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:06:35</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44362.75457175926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10247,10 +9997,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:06:00</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44362.75416666667</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10318,10 +10066,8 @@
           <t>4732905020</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:03:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44362.75266203703</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10389,10 +10135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:01:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44362.75092592592</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10464,10 +10208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:58:17</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44362.74880787037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10535,10 +10277,8 @@
           <t>4732742265</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:56:43</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44362.74771990741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10610,10 +10350,8 @@
           <t>4732051896</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:55:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44362.74700231481</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10685,10 +10423,8 @@
           <t>4732811957</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:55:18</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44362.74673611111</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10761,10 +10497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:54</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44362.74645833333</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10840,10 +10574,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:37</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44362.74626157407</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10920,10 +10652,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:53:26</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44362.74543981482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10996,10 +10726,8 @@
           <t>4732830855</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:49</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44362.74362268519</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11075,10 +10803,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:06</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44362.743125</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11138,10 +10864,8 @@
           <t>4732822349</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:49:34</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44362.74275462963</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11213,10 +10937,8 @@
           <t>4732811957</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:48:28</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44362.74199074074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11288,10 +11010,8 @@
           <t>4732695128</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:45:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44362.73982638889</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11355,10 +11075,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:43:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44362.73840277778</v>
       </c>
       <c r="I150" t="n">
         <v>6</v>
@@ -11422,10 +11140,8 @@
           <t>4732775155</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:39:02</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44362.73543981482</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11489,10 +11205,8 @@
           <t>4732695128</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:38:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44362.73498842592</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11564,10 +11278,8 @@
           <t>4732547610</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:38:18</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44362.73493055555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11631,10 +11343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:36:50</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44362.73391203704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11698,10 +11408,8 @@
           <t>4732742265</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:34:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44362.73196759259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11765,10 +11473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:33:42</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44362.73173611111</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11844,10 +11550,8 @@
           <t>4732727119</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:30:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44362.72983796296</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11915,10 +11619,8 @@
           <t>4732695128</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:30:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44362.72920138889</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11982,10 +11684,8 @@
           <t>4732709553</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:29:16</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44362.72865740741</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12054,10 +11754,8 @@
           <t>4732707416</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:27:56</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44362.72773148148</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12133,10 +11831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:24</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44362.72666666667</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12196,10 +11892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:25:04</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44362.72574074074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12275,10 +11969,8 @@
           <t>4732701019</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:24:16</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44362.72518518518</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12342,10 +12034,8 @@
           <t>4732695923</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:24:09</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44362.72510416667</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12409,10 +12099,8 @@
           <t>4732695128</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:23:38</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44362.72474537037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12484,10 +12172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:21:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44362.72329861111</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12563,10 +12249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:35</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44362.72193287037</v>
       </c>
       <c r="I167" t="n">
         <v>536</v>
@@ -12634,10 +12318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:13:35</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44362.71776620371</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12701,10 +12383,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:06:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44362.71273148148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12772,10 +12452,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:04:19</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44362.71133101852</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12851,10 +12529,8 @@
           <t>4732547610</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:55:44</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44362.70537037037</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12922,10 +12598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:55:22</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44362.70511574074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12993,10 +12667,8 @@
           <t>4732547610</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:52:29</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44362.70311342592</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13060,10 +12732,8 @@
           <t>4732544367</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:52:28</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44362.70310185185</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13144,10 +12814,8 @@
           <t>4732501177</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:49</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44362.69501157408</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13225,10 +12893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:40</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44362.69490740741</v>
       </c>
       <c r="I176" t="n">
         <v>42</v>
@@ -13293,10 +12959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:39:27</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44362.6940625</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13368,10 +13032,8 @@
           <t>4732459661</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:32:32</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44362.68925925926</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -13447,10 +13109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:31:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44362.68841435185</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13522,10 +13182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:30:08</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44362.68759259259</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13593,10 +13251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:27:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44362.68605324074</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13664,10 +13320,8 @@
           <t>4732446308</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:58</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44362.68539351852</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13731,10 +13385,8 @@
           <t>4732434858</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44362.68467592593</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13806,10 +13458,8 @@
           <t>4732437228</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44362.68421296297</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13873,10 +13523,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:21:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44362.68136574074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13944,10 +13592,8 @@
           <t>4731954032</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:20:58</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44362.68122685186</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14019,10 +13665,8 @@
           <t>4732401791</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:16:25</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44362.67806712963</v>
       </c>
       <c r="I187" t="n">
         <v>5</v>
@@ -14098,10 +13742,8 @@
           <t>4731939876</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:13:59</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44362.67637731481</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14173,10 +13815,8 @@
           <t>4732387726</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:13:29</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44362.6760300926</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14244,10 +13884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:57</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44362.67565972222</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14315,10 +13953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:12</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44362.67513888889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14382,10 +14018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:00</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44362.675</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14453,10 +14087,8 @@
           <t>4732362665</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:10:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44362.67409722223</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14524,10 +14156,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:10:23</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44362.67387731482</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14603,10 +14233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:09:32</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44362.67328703704</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14682,10 +14310,8 @@
           <t>4732332876</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:08:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44362.67222222222</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14753,10 +14379,8 @@
           <t>4732144532</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:07:46</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44362.67206018518</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14826,10 +14450,8 @@
           <t>4732362665</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:06:53</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44362.67144675926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14893,10 +14515,8 @@
           <t>4732344384</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:38</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44362.66918981481</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14956,10 +14576,8 @@
           <t>4732314157</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:47</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44362.6679050926</v>
       </c>
       <c r="I200" t="n">
         <v>5</v>
@@ -15027,10 +14645,8 @@
           <t>4732329780</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:00:13</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44362.66681712963</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15106,10 +14722,8 @@
           <t>4732332876</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:59:29</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44362.66630787037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15186,10 +14800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:58:10</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44362.66539351852</v>
       </c>
       <c r="I203" t="n">
         <v>7</v>
@@ -15249,10 +14861,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:53</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44362.66450231482</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15328,10 +14938,8 @@
           <t>4732325052</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:41</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44362.66436342592</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -15403,10 +15011,8 @@
           <t>4732318554</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:13</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44362.66403935185</v>
       </c>
       <c r="I206" t="n">
         <v>7</v>
@@ -15466,10 +15072,8 @@
           <t>4732314157</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:01</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44362.66390046296</v>
       </c>
       <c r="I207" t="n">
         <v>13</v>
@@ -15533,10 +15137,8 @@
           <t>4732309899</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:49</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44362.66376157408</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15608,10 +15210,8 @@
           <t>4732304254</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:42</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44362.66368055555</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15687,10 +15287,8 @@
           <t>4732313421</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:27</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44362.66350694445</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15766,10 +15364,8 @@
           <t>4731964377</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:53:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44362.66231481481</v>
       </c>
       <c r="I211" t="n">
         <v>4</v>
@@ -15841,10 +15437,8 @@
           <t>4732304254</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:55</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44362.66174768518</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15904,10 +15498,8 @@
           <t>4732302388</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:51:27</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44362.66072916667</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15983,10 +15575,8 @@
           <t>4732294158</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:51:26</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44362.66071759259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16062,10 +15652,8 @@
           <t>4731939876</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:50:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44362.6604050926</v>
       </c>
       <c r="I215" t="n">
         <v>35</v>
@@ -16129,10 +15717,8 @@
           <t>4732297238</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:50:52</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44362.66032407407</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16208,10 +15794,8 @@
           <t>4732284854</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:49:03</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44362.6590625</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16271,10 +15855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:46:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44362.6571875</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16294,9 +15876,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M218">
-        <f>.=头像是系统默认的，真的。</f>
-        <v/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>=.=头像是系统默认的，真的。</t>
+        </is>
       </c>
       <c r="N218" t="n">
         <v>6</v>
@@ -16345,10 +15928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:46:00</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44362.65694444445</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16412,10 +15993,8 @@
           <t>4732275639</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:49</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44362.65612268518</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16491,10 +16070,8 @@
           <t>4732270521</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:42:17</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44362.65436342593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16566,10 +16143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:40:29</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44362.65311342593</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16633,10 +16208,8 @@
           <t>4732245445</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:39:51</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44362.65267361111</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16700,10 +16273,8 @@
           <t>4732249172</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:39:40</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44362.6525462963</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16779,10 +16350,8 @@
           <t>4732244719</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:37:39</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44362.65114583333</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16854,10 +16423,8 @@
           <t>4732243609</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:45</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44362.65052083333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16921,10 +16488,8 @@
           <t>4732245445</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:45</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44362.65052083333</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17000,10 +16565,8 @@
           <t>4732245309</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:38</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44362.65043981482</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17079,10 +16642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:35:45</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44362.64982638889</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17150,10 +16711,8 @@
           <t>4732241014</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:34:41</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44362.64908564815</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17229,10 +16788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:28:05</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44362.64450231481</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17304,10 +16861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:25:21</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44362.64260416666</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17383,10 +16938,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:24:03</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44362.64170138889</v>
       </c>
       <c r="I233" t="n">
         <v>17</v>
@@ -17454,10 +17007,8 @@
           <t>4732127316</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:23:23</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44362.64123842592</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17517,10 +17068,8 @@
           <t>4732184861</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:21:58</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44362.64025462963</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17596,10 +17145,8 @@
           <t>4732182579</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:20:13</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44362.63903935185</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17667,10 +17214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:18</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44362.63840277777</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17738,10 +17283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:18:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44362.63809027777</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17817,10 +17360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:18:48</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44362.63805555556</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17888,10 +17429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:48</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44362.63736111111</v>
       </c>
       <c r="I240" t="n">
         <v>14</v>
@@ -17959,10 +17498,8 @@
           <t>4732161131</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:15:00</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44362.63541666666</v>
       </c>
       <c r="I241" t="n">
         <v>35</v>
@@ -18026,10 +17563,8 @@
           <t>4732144532</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:14:44</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44362.63523148148</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18105,10 +17640,8 @@
           <t>4732149079</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:13:22</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44362.63428240741</v>
       </c>
       <c r="I243" t="n">
         <v>7</v>
@@ -18184,10 +17717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:13:16</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44362.63421296296</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18259,10 +17790,8 @@
           <t>4732144532</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:56</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44362.63398148148</v>
       </c>
       <c r="I245" t="n">
         <v>15</v>
@@ -18332,10 +17861,8 @@
           <t>4732144719</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:43</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44362.63383101852</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18407,10 +17934,8 @@
           <t>4732144532</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:34</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44362.63372685185</v>
       </c>
       <c r="I247" t="n">
         <v>7</v>
@@ -18486,10 +18011,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44362.63342592592</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18565,10 +18088,8 @@
           <t>4732151562</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:38</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44362.6330787037</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18632,10 +18153,8 @@
           <t>4732142101</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:41</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44362.63241898148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18699,10 +18218,8 @@
           <t>4732132839</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:08:24</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44362.63083333334</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18774,10 +18291,8 @@
           <t>4732127316</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:07:41</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44362.63033564815</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18837,10 +18352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:07:18</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44362.63006944444</v>
       </c>
       <c r="I253" t="n">
         <v>35</v>
@@ -18912,10 +18425,8 @@
           <t>4732127316</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:06:55</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44362.62980324074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18975,10 +18486,8 @@
           <t>4732120558</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:06:26</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44362.62946759259</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -19048,10 +18557,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:24</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44362.62875</v>
       </c>
       <c r="I256" t="n">
         <v>18</v>
@@ -19112,10 +18619,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:01</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44362.6284837963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19179,10 +18684,8 @@
           <t>4732120558</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:03:05</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44362.6271412037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19254,10 +18757,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:01:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44362.62630787037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19325,10 +18826,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:01:40</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44362.62615740741</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19398,10 +18897,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:01:01</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44362.62570601852</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19477,10 +18974,8 @@
           <t>4732008986</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:49</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44362.62556712963</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19540,10 +19035,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44362.62502314815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19613,10 +19106,8 @@
           <t>4732093920</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:58</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44362.62358796296</v>
       </c>
       <c r="I264" t="n">
         <v>15</v>
@@ -19692,10 +19183,8 @@
           <t>4732092969</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:14</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44362.62307870371</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19771,10 +19260,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:09</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44362.62302083334</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -19846,10 +19333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:04</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44362.62296296296</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19921,10 +19406,8 @@
           <t>4732078814</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:53:59</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44362.62082175926</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19992,10 +19475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:53:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44362.62028935185</v>
       </c>
       <c r="I269" t="n">
         <v>1576</v>
@@ -20067,10 +19548,8 @@
           <t>4732077557</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:53:02</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44362.62016203703</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20135,10 +19614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:52:21</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44362.6196875</v>
       </c>
       <c r="I271" t="n">
         <v>433</v>
@@ -20208,10 +19685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:51:14</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44362.61891203704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20279,10 +19754,8 @@
           <t>4731942396</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:50:25</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44362.61834490741</v>
       </c>
       <c r="I273" t="n">
         <v>14</v>
@@ -20352,10 +19825,8 @@
           <t>4732062745</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:49:19</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44362.61758101852</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20425,10 +19896,8 @@
           <t>4732053337</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44362.6169212963</v>
       </c>
       <c r="I275" t="n">
         <v>6</v>
@@ -20498,10 +19967,8 @@
           <t>4732051896</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:47:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44362.61613425926</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20565,10 +20032,8 @@
           <t>4732055887</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:47:08</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44362.61606481481</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20640,10 +20105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:46:31</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44362.61563657408</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20719,10 +20182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:46:12</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44362.61541666667</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20798,10 +20259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:46</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44362.61511574074</v>
       </c>
       <c r="I280" t="n">
         <v>8</v>
@@ -20865,10 +20324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:44:54</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44362.61451388889</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20944,10 +20401,8 @@
           <t>4732047036</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:44:54</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44362.61451388889</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21019,10 +20474,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:43:28</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44362.61351851852</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21090,10 +20543,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:56</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44362.6124537037</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21165,10 +20616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:15</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44362.61197916666</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21244,10 +20693,8 @@
           <t>4732032280</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:11</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44362.61193287037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21315,10 +20762,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:39:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44362.61101851852</v>
       </c>
       <c r="I287" t="n">
         <v>26</v>
@@ -21390,10 +20835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:38:32</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44362.61009259259</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21465,10 +20908,8 @@
           <t>4732008986</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:37:01</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44362.60903935185</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21544,10 +20985,8 @@
           <t>4732008598</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:36:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44362.60881944445</v>
       </c>
       <c r="I290" t="n">
         <v>6</v>
@@ -21611,10 +21050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:43</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44362.60744212963</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21682,10 +21119,8 @@
           <t>4732010208</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:39</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44362.60739583334</v>
       </c>
       <c r="I292" t="n">
         <v>41</v>
@@ -21749,10 +21184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:24</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44362.60722222222</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21814,10 +21247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:19</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44362.60716435185</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21879,10 +21310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:49</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44362.60681712963</v>
       </c>
       <c r="I295" t="n">
         <v>47</v>
@@ -21954,10 +21383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:54</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44362.60618055556</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22017,10 +21444,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:20</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44362.60578703704</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22092,10 +21517,8 @@
           <t>4731954032</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:07</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44362.60563657407</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22161,10 +21584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:00</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44362.60555555556</v>
       </c>
       <c r="I299" t="n">
         <v>30</v>
@@ -22224,10 +21645,8 @@
           <t>4731996438</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:43</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44362.6053587963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22291,10 +21710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44362.60515046296</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22362,10 +21779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:22</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44362.60511574074</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22429,10 +21844,8 @@
           <t>4731990384</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44362.60438657407</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22508,10 +21921,8 @@
           <t>4731986653</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:00</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44362.60347222222</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22583,10 +21994,8 @@
           <t>4731982768</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:50</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44362.60335648148</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22650,10 +22059,8 @@
           <t>4731982709</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:47</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44362.60332175926</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22725,10 +22132,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:29</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44362.60311342592</v>
       </c>
       <c r="I307" t="n">
         <v>14</v>
@@ -22800,10 +22205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:23</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44362.60304398148</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22881,10 +22284,8 @@
           <t>4731973722</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:46</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44362.60192129629</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22965,10 +22366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:40</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44362.60185185185</v>
       </c>
       <c r="I310" t="n">
         <v>8</v>
@@ -23052,10 +22451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:19</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44362.6016087963</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23123,10 +22520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:17</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44362.60158564815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23190,10 +22585,8 @@
           <t>4731936940</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44362.60153935185</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23261,10 +22654,8 @@
           <t>4731975048</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:10</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44362.60150462963</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23345,10 +22736,8 @@
           <t>4731964377</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:25:36</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44362.60111111111</v>
       </c>
       <c r="I315" t="n">
         <v>27</v>
@@ -23429,10 +22818,8 @@
           <t>4731971958</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:25:22</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44362.60094907408</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23505,10 +22892,8 @@
           <t>4731967426</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:35</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44362.60040509259</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23581,10 +22966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:06</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44362.60006944444</v>
       </c>
       <c r="I318" t="n">
         <v>22</v>
@@ -23648,10 +23031,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:04</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44362.6000462963</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23723,10 +23104,8 @@
           <t>4731958525</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:40</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44362.59907407407</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23798,10 +23177,8 @@
           <t>4731949705</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:57</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44362.59857638889</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -23877,10 +23254,8 @@
           <t>4731954032</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:52</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44362.59851851852</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23952,10 +23327,8 @@
           <t>4731946430</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:42</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44362.59840277778</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24023,10 +23396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:21</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44362.59815972222</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24086,10 +23457,8 @@
           <t>4731956372</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:59</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44362.5979050926</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24167,10 +23536,8 @@
           <t>4731951362</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:47</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44362.59707175926</v>
       </c>
       <c r="I326" t="n">
         <v>8</v>
@@ -24247,10 +23614,8 @@
           <t>4731951282</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:43</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44362.59702546296</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24327,10 +23692,8 @@
           <t>4731946759</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44362.59695601852</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24402,10 +23765,8 @@
           <t>4731946430</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:23</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44362.59679398148</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24473,10 +23834,8 @@
           <t>4731944003</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:11</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44362.5966550926</v>
       </c>
       <c r="I330" t="n">
         <v>15</v>
@@ -24540,10 +23899,8 @@
           <t>4731943930</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:08</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44362.59662037037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24615,10 +23972,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:55</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44362.59646990741</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24709,10 +24064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:50</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44362.59641203703</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24788,10 +24141,8 @@
           <t>4731939876</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44362.59626157407</v>
       </c>
       <c r="I334" t="n">
         <v>16</v>
@@ -24863,10 +24214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:27</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44362.59614583333</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24942,10 +24291,8 @@
           <t>4731945085</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:21</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44362.59607638889</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25017,10 +24364,8 @@
           <t>4731939046</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44362.59581018519</v>
       </c>
       <c r="I337" t="n">
         <v>24</v>
@@ -25084,10 +24429,8 @@
           <t>4731942396</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:53</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44362.59575231482</v>
       </c>
       <c r="I338" t="n">
         <v>7</v>
@@ -25155,10 +24498,8 @@
           <t>4731938861</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:48</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44362.59569444445</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25234,10 +24575,8 @@
           <t>4731938826</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44362.59568287037</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25313,10 +24652,8 @@
           <t>4731938447</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:27</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44362.59545138889</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25384,10 +24721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:24</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44362.59541666666</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25455,10 +24790,8 @@
           <t>4731941663</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:17</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44362.59533564815</v>
       </c>
       <c r="I343" t="n">
         <v>26</v>
@@ -25558,10 +24891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:03</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44362.59517361111</v>
       </c>
       <c r="I344" t="n">
         <v>980</v>
@@ -25637,10 +24968,8 @@
           <t>4731937650</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44362.595</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25704,10 +25033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:26</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44362.59474537037</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25771,10 +25098,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:26</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44362.59474537037</v>
       </c>
       <c r="I347" t="n">
         <v>42</v>
@@ -25846,10 +25171,8 @@
           <t>4731936940</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:15</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44362.59461805555</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25913,10 +25236,8 @@
           <t>4731940058</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:00</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44362.59444444445</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25992,10 +25313,8 @@
           <t>4731931716</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:38</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44362.59418981482</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26068,10 +25387,8 @@
           <t>4731929479</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:33</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44362.59413194445</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26135,10 +25452,8 @@
           <t>4731931582</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:32</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44362.59412037037</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26202,10 +25517,8 @@
           <t>4731931179</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:12</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44362.59388888889</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26277,10 +25590,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44362.59375</v>
       </c>
       <c r="I354" t="n">
         <v>10</v>
@@ -26352,10 +25663,8 @@
           <t>4731935351</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44362.59373842592</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26419,10 +25728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:57</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44362.59371527778</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26490,10 +25797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:28</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44362.59337962963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26561,10 +25866,8 @@
           <t>4731930235</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:26</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44362.59335648148</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26636,10 +25939,8 @@
           <t>4731919941</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:11</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44362.59318287037</v>
       </c>
       <c r="I359" t="n">
         <v>9</v>
@@ -26713,10 +26014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:10</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44362.5931712963</v>
       </c>
       <c r="I360" t="n">
         <v>75</v>
@@ -26780,10 +26079,8 @@
           <t>4731919876</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44362.59314814815</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26855,10 +26152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:15</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44362.59253472222</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26922,10 +26217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:13</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44362.59251157408</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26989,10 +26282,8 @@
           <t>4731918460</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:01</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44362.59237268518</v>
       </c>
       <c r="I364" t="n">
         <v>16</v>
@@ -27052,10 +26343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:49</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44362.5922337963</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27119,10 +26408,8 @@
           <t>4731917801</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:29</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44362.59200231481</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27194,10 +26481,8 @@
           <t>4731895333</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:11</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44362.59179398148</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27265,10 +26550,8 @@
           <t>4731917359</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:06</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44362.59173611111</v>
       </c>
       <c r="I368" t="n">
         <v>5</v>
@@ -27336,10 +26619,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:54</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44362.59159722222</v>
       </c>
       <c r="I369" t="n">
         <v>7</v>
@@ -27417,10 +26698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:49</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44362.59153935185</v>
       </c>
       <c r="I370" t="n">
         <v>853</v>
@@ -27496,10 +26775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:28</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44362.5912962963</v>
       </c>
       <c r="I371" t="n">
         <v>5</v>
@@ -27567,10 +26844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:00</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44362.59097222222</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27646,10 +26921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44362.5908912037</v>
       </c>
       <c r="I373" t="n">
         <v>4</v>
@@ -27717,10 +26990,8 @@
           <t>4731915725</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:48</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44362.59083333334</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27796,10 +27067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44362.59071759259</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27871,10 +27140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:24</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44362.59055555556</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27938,10 +27205,8 @@
           <t>4731915026</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:16</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44362.59046296297</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28017,10 +27282,8 @@
           <t>4731904874</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:09</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44362.59038194444</v>
       </c>
       <c r="I378" t="n">
         <v>55</v>
@@ -28092,10 +27355,8 @@
           <t>4731904624</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:57</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44362.59024305556</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28155,10 +27416,8 @@
           <t>4731912048</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44362.59005787037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28222,10 +27481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:39</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44362.59003472222</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28297,10 +27554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:24</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44362.58986111111</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28364,10 +27619,8 @@
           <t>4731907752</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:52</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44362.58949074074</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28443,10 +27696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:48</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44362.58944444444</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28514,10 +27765,8 @@
           <t>4731907560</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:44</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44362.58939814815</v>
       </c>
       <c r="I385" t="n">
         <v>19</v>
@@ -28585,10 +27834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:16</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44362.58907407407</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28666,10 +27913,8 @@
           <t>4731906798</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:08</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44362.58898148148</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28741,10 +27986,8 @@
           <t>4731910022</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:07</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44362.58896990741</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28814,10 +28057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:53</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44362.58880787037</v>
       </c>
       <c r="I389" t="n">
         <v>8</v>
@@ -28885,10 +28126,8 @@
           <t>4731899642</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:50</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44362.58877314815</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28952,10 +28191,8 @@
           <t>4731901829</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:48</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44362.58875</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29015,10 +28252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:55</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44362.58813657407</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29094,10 +28329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:24</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44362.58777777778</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29165,10 +28398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:21</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44362.58774305556</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29236,10 +28467,8 @@
           <t>4731895714</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:45</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44362.58732638889</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29305,10 +28534,8 @@
           <t>4731896677</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:33</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44362.5871875</v>
       </c>
       <c r="I396" t="n">
         <v>43</v>
@@ -29380,10 +28607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:30</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44362.58715277778</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29447,10 +28672,8 @@
           <t>4731896486</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:24</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44362.58708333333</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29510,10 +28733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:04</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44362.58685185185</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29584,10 +28805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:59</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44362.58679398148</v>
       </c>
       <c r="I400" t="n">
         <v>195</v>
@@ -29651,10 +28870,8 @@
           <t>4731895800</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:52</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44362.58671296296</v>
       </c>
       <c r="I401" t="n">
         <v>8</v>
@@ -29730,10 +28947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:48</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44362.58666666667</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29809,10 +29024,8 @@
           <t>4731895714</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:48</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44362.58666666667</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29884,10 +29097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:34</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44362.58650462963</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29951,10 +29162,8 @@
           <t>4731895333</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:32</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44362.58648148148</v>
       </c>
       <c r="I405" t="n">
         <v>6</v>
@@ -30022,10 +29231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:30</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44362.58645833333</v>
       </c>
       <c r="I406" t="n">
         <v>26</v>
@@ -30101,10 +29308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:09</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44362.58621527778</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30168,10 +29373,8 @@
           <t>4731884708</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:02</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44362.58613425926</v>
       </c>
       <c r="I408" t="n">
         <v>30</v>
@@ -30247,10 +29450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:54</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44362.58604166667</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30315,10 +29516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:45</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44362.5859375</v>
       </c>
       <c r="I410" t="n">
         <v>264</v>
@@ -30391,10 +29590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:41</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44362.5858912037</v>
       </c>
       <c r="I411" t="n">
         <v>105</v>
@@ -30462,10 +29659,8 @@
           <t>4731890918</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:37</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44362.58584490741</v>
       </c>
       <c r="I412" t="n">
         <v>2</v>
@@ -30541,10 +29736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:30</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44362.58576388889</v>
       </c>
       <c r="I413" t="n">
         <v>499</v>
@@ -30622,10 +29815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:21</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44362.58565972222</v>
       </c>
       <c r="I414" t="n">
         <v>27</v>
@@ -30693,10 +29884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:03</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44362.58545138889</v>
       </c>
       <c r="I415" t="n">
         <v>2</v>
@@ -30760,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:27</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44362.58503472222</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30835,10 +30022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44362.58484953704</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30914,10 +30099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:09</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44362.58482638889</v>
       </c>
       <c r="I418" t="n">
         <v>110</v>
@@ -30977,10 +30160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:48</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44362.58458333334</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31052,10 +30233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:48</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44362.58458333334</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31142,10 +30321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:40</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44362.58449074074</v>
       </c>
       <c r="I421" t="n">
         <v>1711</v>
@@ -31221,10 +30398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:37</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44362.58445601852</v>
       </c>
       <c r="I422" t="n">
         <v>84</v>
@@ -31300,10 +30475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:29</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44362.58436342593</v>
       </c>
       <c r="I423" t="n">
         <v>5</v>
@@ -31363,10 +30536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:25</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44362.58431712963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31430,10 +30601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:16</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44362.58421296296</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31509,10 +30678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:03</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44362.5840625</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31580,10 +30747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:02</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44362.58405092593</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31659,10 +30824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:02</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44362.58405092593</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31734,10 +30897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:54</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44362.58395833334</v>
       </c>
       <c r="I429" t="n">
         <v>74</v>
@@ -31805,10 +30966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:40</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44362.5837962963</v>
       </c>
       <c r="I430" t="n">
         <v>354</v>
@@ -31880,10 +31039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:38</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44362.58377314815</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31955,10 +31112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44362.58362268518</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
